--- a/Data/schedule.xlsx
+++ b/Data/schedule.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanghe/Library/Containers/com.tencent.WeWorkMac/Data/Documents/Profiles/48EA0D89431DC01C1DACC6FE6A21788E/Caches/Files/2024-06/4150de4c8cac1e5499c724341b1296b9/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7E2D2-7F27-394C-8CE6-5E14B4B33D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28000" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="68">
   <si>
     <t>match_id</t>
   </si>
@@ -43,172 +62,178 @@
     <t>datetime</t>
   </si>
   <si>
+    <t>home_score</t>
+  </si>
+  <si>
+    <t>away_score</t>
+  </si>
+  <si>
     <t>03:00:00</t>
   </si>
   <si>
+    <t>A组</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
     <t>21:00:00</t>
   </si>
   <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
     <t>00:00:00</t>
   </si>
   <si>
-    <t>A组</t>
-  </si>
-  <si>
     <t>B组</t>
   </si>
   <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
     <t>D组</t>
   </si>
   <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
     <t>C组</t>
   </si>
   <si>
+    <t>斯洛文尼亚</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
     <t>E组</t>
   </si>
   <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>F组</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
     <t>土耳其</t>
   </si>
   <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>葡萄牙</t>
   </si>
   <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>苏格兰</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>英格兰</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
     <t>捷克</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
     <t>Portugal</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
   </si>
   <si>
     <t>Czech Republic</t>
@@ -217,24 +242,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -278,13 +311,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -572,14 +613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +655,14 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -619,28 +673,34 @@
         <v>45458</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2">
         <v>45458.125</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -651,28 +711,34 @@
         <v>45458</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2">
         <v>45458.875</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -683,28 +749,34 @@
         <v>45459</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2">
         <v>45459</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -715,28 +787,34 @@
         <v>45459</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2">
         <v>45459.125</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -747,28 +825,34 @@
         <v>45459</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2">
         <v>45459.875</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -779,28 +863,34 @@
         <v>45460</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2">
         <v>45460</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -811,28 +901,34 @@
         <v>45460</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2">
         <v>45460.125</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -843,28 +939,34 @@
         <v>45460</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
         <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2">
         <v>45460.875</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -875,28 +977,34 @@
         <v>45461</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J10" s="2">
         <v>45461</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,28 +1015,34 @@
         <v>45461</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J11" s="2">
         <v>45461.125</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -939,28 +1053,34 @@
         <v>45462</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2">
         <v>45462</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -971,28 +1091,34 @@
         <v>45462</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J13" s="2">
         <v>45462.125</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1003,28 +1129,34 @@
         <v>45462</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J14" s="2">
         <v>45462.875</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,28 +1167,34 @@
         <v>45463</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J15" s="2">
         <v>45463</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1067,28 +1205,34 @@
         <v>45463</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="J16" s="2">
         <v>45463.125</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1099,28 +1243,34 @@
         <v>45463</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2">
         <v>45463.875</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1131,28 +1281,34 @@
         <v>45464</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2">
         <v>45464</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1163,28 +1319,34 @@
         <v>45464</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J19" s="2">
         <v>45464.125</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1195,28 +1357,34 @@
         <v>45464</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J20" s="2">
         <v>45464.875</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1227,28 +1395,34 @@
         <v>45465</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J21" s="2">
         <v>45465</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1259,28 +1433,34 @@
         <v>45465</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
         <v>58</v>
-      </c>
-      <c r="I22" t="s">
-        <v>62</v>
       </c>
       <c r="J22" s="2">
         <v>45465.125</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1291,28 +1471,34 @@
         <v>45465</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J23" s="2">
         <v>45465.875</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,28 +1509,34 @@
         <v>45466</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="J24" s="2">
         <v>45466</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1355,19 +1547,19 @@
         <v>45466</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s">
         <v>49</v>
@@ -1375,8 +1567,14 @@
       <c r="J25" s="2">
         <v>45466.125</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1387,28 +1585,34 @@
         <v>45467</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J26" s="2">
         <v>45467.125</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1419,28 +1623,34 @@
         <v>45467</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="J27" s="2">
         <v>45467.125</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1451,28 +1661,34 @@
         <v>45468</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
         <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" t="s">
-        <v>45</v>
       </c>
       <c r="J28" s="2">
         <v>45468.125</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1483,28 +1699,34 @@
         <v>45468</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J29" s="2">
         <v>45468.125</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1515,28 +1737,34 @@
         <v>45469</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J30" s="2">
         <v>45469</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1547,28 +1775,34 @@
         <v>45469</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J31" s="2">
         <v>45469</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1579,28 +1813,34 @@
         <v>45469</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J32" s="2">
         <v>45469.125</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1611,28 +1851,34 @@
         <v>45469</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J33" s="2">
         <v>45469.125</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1643,28 +1889,34 @@
         <v>45470</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J34" s="2">
         <v>45470</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1675,19 +1927,19 @@
         <v>45470</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I35" t="s">
         <v>49</v>
@@ -1695,8 +1947,14 @@
       <c r="J35" s="2">
         <v>45470</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1707,28 +1965,34 @@
         <v>45470</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J36" s="2">
         <v>45470.125</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1739,28 +2003,35 @@
         <v>45470</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="J37" s="2">
         <v>45470.125</v>
       </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/schedule.xlsx
+++ b/Data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanghe/Library/Containers/com.tencent.WeWorkMac/Data/Documents/Profiles/48EA0D89431DC01C1DACC6FE6A21788E/Caches/Files/2024-06/4150de4c8cac1e5499c724341b1296b9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7E2D2-7F27-394C-8CE6-5E14B4B33D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4769A6D-7008-4334-8BB5-8153EAF51C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28000" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="2620" windowWidth="15870" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,9 +244,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,7 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,17 +617,17 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" customWidth="1"/>
+    <col min="12" max="12" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -694,13 +694,13 @@
         <v>45458.125</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -738,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -928,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
